--- a/api/helpers/test.xlsx
+++ b/api/helpers/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISJ\ING4\algo\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISJ\ING4\algo\ProjetAlgo\api\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8444EB-F7C2-4446-A659-E3CA8A8BCCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABCDD0D-1E47-4804-AD99-B280C7E8150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hemle Forfaits" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>Nom</t>
   </si>
@@ -221,15 +221,6 @@
   </si>
   <si>
     <t>2,2 Go</t>
-  </si>
-  <si>
-    <t>30  jours</t>
-  </si>
-  <si>
-    <t>3  jours</t>
-  </si>
-  <si>
-    <t>7  jours</t>
   </si>
   <si>
     <t>Data</t>
@@ -888,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -909,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1495,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
         <v>450</v>
@@ -1515,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>1200</v>
@@ -1535,7 +1526,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
         <v>5400</v>
@@ -1555,7 +1546,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2">
         <v>2650</v>
@@ -1575,7 +1566,7 @@
         <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2">
         <v>5600</v>
@@ -1595,7 +1586,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2">
         <v>15400</v>
@@ -1615,7 +1606,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2">
         <v>10000</v>
@@ -1635,7 +1626,7 @@
         <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2">
         <v>21500</v>
@@ -1655,7 +1646,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2">
         <v>300</v>
@@ -1675,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2">
         <v>300</v>
@@ -1695,7 +1686,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2">
         <v>300</v>
@@ -1715,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2">
         <v>300</v>
@@ -1735,7 +1726,7 @@
         <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2">
         <v>5000</v>
@@ -1755,7 +1746,7 @@
         <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2">
         <v>2100</v>
@@ -1775,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2">
         <v>1000</v>
@@ -1795,7 +1786,7 @@
         <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2">
         <v>1200</v>
@@ -1815,7 +1806,7 @@
         <v>900</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2">
         <v>500</v>
@@ -1835,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2">
         <v>400</v>
